--- a/Module 1.xlsx
+++ b/Module 1.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="C2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +446,9 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
